--- a/CalculadoradeLucro/dados.xlsx
+++ b/CalculadoradeLucro/dados.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="lucro" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -121,24 +122,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:I3" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:I3"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Produto"/>
-    <tableColumn id="2" name="Preço de compra"/>
-    <tableColumn id="3" name="Preço de venda"/>
-    <tableColumn id="4" name="Quantidade"/>
-    <tableColumn id="5" name="Custos adicionais"/>
-    <tableColumn id="6" name="Custo médio do frete"/>
-    <tableColumn id="7" name="Custo total"/>
-    <tableColumn id="8" name="Lucro líquido"/>
-    <tableColumn id="9" name="Margem de lucro"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,29 +408,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10.28515625" customWidth="1" min="1" max="1"/>
-    <col width="17.85546875" customWidth="1" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" min="3" max="3"/>
-    <col width="13.5703125" customWidth="1" min="4" max="4"/>
-    <col width="18.28515625" customWidth="1" min="5" max="5"/>
-    <col width="21.85546875" customWidth="1" min="6" max="6"/>
-    <col width="12.7109375" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -457,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Preço de compra</t>
+          <t>Preço de Compra</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Preço de venda</t>
+          <t>Preço de Venda</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -472,127 +444,62 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Custos adicionais</t>
+          <t>Custos Adicionais</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Custo médio do frete</t>
+          <t>Custo de Frete</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Custo total</t>
+          <t>Custo Total</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lucro líquido</t>
+          <t>Lucro Líquido</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Margem de lucro</t>
+          <t>Margem de Lucro</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>teste3</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>3000</v>
+        <v>5800</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Teste2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>200</v>
-      </c>
-      <c r="C3" t="n">
-        <v>500</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>120</v>
-      </c>
-      <c r="G3" t="n">
-        <v>32000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>teste3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>150</v>
-      </c>
-      <c r="C4" t="n">
-        <v>300</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17500</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12500</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41.66666666666667</v>
+        <v>51.66666666666667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/CalculadoradeLucro/dados.xlsx
+++ b/CalculadoradeLucro/dados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,161 @@
         <v>51.66666666666667</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>900</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Teste2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43.33333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teste4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>220</v>
+      </c>
+      <c r="H5" t="n">
+        <v>280</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teste5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>120</v>
+      </c>
+      <c r="H7" t="n">
+        <v>180</v>
+      </c>
+      <c r="I7" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CalculadoradeLucro/dados.xlsx
+++ b/CalculadoradeLucro/dados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,187 +471,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>teste3</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>120</v>
-      </c>
-      <c r="C2" t="n">
-        <v>300</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5800</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6200</v>
-      </c>
-      <c r="I2" t="n">
-        <v>51.66666666666667</v>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Preço de Compra</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Preço de Venda</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Custos Adicionais</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Custo de Frete</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Custo Total</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lucro Líquido</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Margem de Lucro</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>TELA 14POL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>1100</v>
+        <v>97500</v>
       </c>
       <c r="H3" t="n">
-        <v>900</v>
+        <v>37500</v>
       </c>
       <c r="I3" t="n">
-        <v>45</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Teste2</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>17000</v>
+        <v>2700</v>
       </c>
       <c r="H4" t="n">
-        <v>13000</v>
+        <v>2300</v>
       </c>
       <c r="I4" t="n">
-        <v>43.33333333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>teste4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>220</v>
-      </c>
-      <c r="H5" t="n">
-        <v>280</v>
-      </c>
-      <c r="I5" t="n">
-        <v>56.00000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>teste5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>120</v>
-      </c>
-      <c r="H7" t="n">
-        <v>180</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
